--- a/mechanics/Parts List.xlsx
+++ b/mechanics/Parts List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hardware" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="135">
   <si>
     <t>Part</t>
   </si>
@@ -428,6 +428,9 @@
   </si>
   <si>
     <t>Amazon</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -888,7 +891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -1813,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2624,7 +2627,7 @@
         <v>86</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -2645,7 +2648,7 @@
         <v>86</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
